--- a/cfs_6_0.75.xlsx
+++ b/cfs_6_0.75.xlsx
@@ -518,7 +518,7 @@
         <v>0.7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.444</v>
+        <v>0.545</v>
       </c>
       <c r="E2" t="n">
         <v>0.646</v>
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.642</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -561,7 +561,7 @@
         <v>0.61</v>
       </c>
       <c r="C3" t="n">
-        <v>0.62</v>
+        <v>0.729</v>
       </c>
       <c r="D3" t="n">
         <v>0.493</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.612</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -619,13 +619,13 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.616</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.537</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>0.412</v>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.634</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>0.736</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.658</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -702,7 +702,7 @@
         <v>0.661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.419</v>
+        <v>0.51</v>
       </c>
       <c r="E6" t="n">
         <v>0.598</v>
@@ -711,7 +711,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.723</v>
       </c>
       <c r="H6" t="n">
         <v>0.404</v>
@@ -745,13 +745,13 @@
         <v>0.546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.727</v>
+        <v>0.679</v>
       </c>
       <c r="D7" t="n">
         <v>0.456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.638</v>
+        <v>0.577</v>
       </c>
       <c r="F7" t="n">
         <v>0.553</v>
@@ -772,7 +772,7 @@
         <v>0.481</v>
       </c>
       <c r="L7" t="n">
-        <v>0.46</v>
+        <v>0.392</v>
       </c>
       <c r="M7" t="n">
         <v>3.452830188679245</v>
@@ -803,7 +803,7 @@
         <v>0.533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.537</v>
+        <v>0.707</v>
       </c>
       <c r="H8" t="n">
         <v>0.404</v>
@@ -849,13 +849,13 @@
         <v>0.601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.632</v>
+        <v>0.744</v>
       </c>
       <c r="H9" t="n">
         <v>0.395</v>
       </c>
       <c r="I9" t="n">
-        <v>0.546</v>
+        <v>0.527</v>
       </c>
       <c r="J9" t="n">
         <v>0.367</v>
@@ -895,7 +895,7 @@
         <v>0.604</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="H10" t="n">
         <v>0.367</v>
@@ -904,7 +904,7 @@
         <v>0.544</v>
       </c>
       <c r="J10" t="n">
-        <v>0.281</v>
+        <v>0.331</v>
       </c>
       <c r="K10" t="n">
         <v>0.418</v>
@@ -938,16 +938,16 @@
         <v>0.601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.498</v>
+        <v>0.649</v>
       </c>
       <c r="G11" t="n">
-        <v>0.595</v>
+        <v>0.736</v>
       </c>
       <c r="H11" t="n">
         <v>0.381</v>
       </c>
       <c r="I11" t="n">
-        <v>0.552</v>
+        <v>0.636</v>
       </c>
       <c r="J11" t="n">
         <v>0.378</v>
@@ -981,16 +981,16 @@
         <v>0.482</v>
       </c>
       <c r="E12" t="n">
-        <v>0.591</v>
+        <v>0.536</v>
       </c>
       <c r="F12" t="n">
         <v>0.5669999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.636</v>
+        <v>0.716</v>
       </c>
       <c r="H12" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="I12" t="n">
         <v>0.542</v>
@@ -1033,7 +1033,7 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.645</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -1045,7 +1045,7 @@
         <v>0.384</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L13" t="n">
         <v>0.447</v>
@@ -1079,13 +1079,13 @@
         <v>0.556</v>
       </c>
       <c r="G14" t="n">
-        <v>0.587</v>
+        <v>0.734</v>
       </c>
       <c r="H14" t="n">
         <v>0.374</v>
       </c>
       <c r="I14" t="n">
-        <v>0.579</v>
+        <v>0.6</v>
       </c>
       <c r="J14" t="n">
         <v>0.392</v>
@@ -1116,16 +1116,16 @@
         <v>0.701</v>
       </c>
       <c r="D15" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="E15" t="n">
-        <v>0.615</v>
+        <v>0.589</v>
       </c>
       <c r="F15" t="n">
         <v>0.596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.756</v>
       </c>
       <c r="H15" t="n">
         <v>0.343</v>
@@ -1140,7 +1140,7 @@
         <v>0.467</v>
       </c>
       <c r="L15" t="n">
-        <v>0.464</v>
+        <v>0.424</v>
       </c>
       <c r="M15" t="n">
         <v>5.162790697674419</v>
@@ -1162,7 +1162,7 @@
         <v>0.737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.412</v>
+        <v>0.494</v>
       </c>
       <c r="E16" t="n">
         <v>0.601</v>
@@ -1171,10 +1171,10 @@
         <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.589</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="n">
-        <v>0.35</v>
+        <v>0.428</v>
       </c>
       <c r="I16" t="n">
         <v>0.5570000000000001</v>
@@ -1217,7 +1217,7 @@
         <v>0.573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.624</v>
+        <v>0.742</v>
       </c>
       <c r="H17" t="n">
         <v>0.361</v>
@@ -1226,13 +1226,13 @@
         <v>0.53</v>
       </c>
       <c r="J17" t="n">
-        <v>0.344</v>
+        <v>0.325</v>
       </c>
       <c r="K17" t="n">
         <v>0.441</v>
       </c>
       <c r="L17" t="n">
-        <v>0.428</v>
+        <v>0.399</v>
       </c>
       <c r="M17" t="n">
         <v>5.810344827586207</v>
@@ -1257,7 +1257,7 @@
         <v>0.496</v>
       </c>
       <c r="E18" t="n">
-        <v>0.616</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F18" t="n">
         <v>0.596</v>
@@ -1266,13 +1266,13 @@
         <v>0.76</v>
       </c>
       <c r="H18" t="n">
-        <v>0.327</v>
+        <v>0.36</v>
       </c>
       <c r="I18" t="n">
         <v>0.5580000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.266</v>
+        <v>0.342</v>
       </c>
       <c r="K18" t="n">
         <v>0.475</v>
@@ -1300,10 +1300,10 @@
         <v>0.592</v>
       </c>
       <c r="D19" t="n">
-        <v>0.391</v>
+        <v>0.481</v>
       </c>
       <c r="E19" t="n">
-        <v>0.623</v>
+        <v>0.542</v>
       </c>
       <c r="F19" t="n">
         <v>0.552</v>
@@ -1315,7 +1315,7 @@
         <v>0.412</v>
       </c>
       <c r="I19" t="n">
-        <v>0.613</v>
+        <v>0.603</v>
       </c>
       <c r="J19" t="n">
         <v>0.456</v>
@@ -1327,7 +1327,7 @@
         <v>0.482</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03125</v>
+        <v>5.2</v>
       </c>
       <c r="N19" t="n">
         <v>3.53125</v>
@@ -1343,13 +1343,13 @@
         <v>0.602</v>
       </c>
       <c r="C20" t="n">
-        <v>0.731</v>
+        <v>0.673</v>
       </c>
       <c r="D20" t="n">
         <v>0.473</v>
       </c>
       <c r="E20" t="n">
-        <v>0.642</v>
+        <v>0.529</v>
       </c>
       <c r="F20" t="n">
         <v>0.552</v>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.602</v>
+        <v>0.629</v>
       </c>
       <c r="C21" t="n">
         <v>0.724</v>
@@ -1401,10 +1401,10 @@
         <v>0.654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.711</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.329</v>
+        <v>0.386</v>
       </c>
       <c r="I21" t="n">
         <v>0.485</v>
@@ -1441,13 +1441,13 @@
         <v>0.461</v>
       </c>
       <c r="E22" t="n">
-        <v>0.594</v>
+        <v>0.515</v>
       </c>
       <c r="F22" t="n">
         <v>0.604</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
         <v>0.353</v>
@@ -1462,7 +1462,7 @@
         <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>0.464</v>
+        <v>0.425</v>
       </c>
       <c r="M22" t="n">
         <v>4.907407407407407</v>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.638</v>
+        <v>0.64</v>
       </c>
       <c r="C23" t="n">
         <v>0.671</v>
       </c>
       <c r="D23" t="n">
-        <v>0.412</v>
+        <v>0.44</v>
       </c>
       <c r="E23" t="n">
         <v>0.588</v>
@@ -1493,10 +1493,10 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.589</v>
+        <v>0.709</v>
       </c>
       <c r="H23" t="n">
-        <v>0.374</v>
+        <v>0.395</v>
       </c>
       <c r="I23" t="n">
         <v>0.581</v>
@@ -1533,13 +1533,13 @@
         <v>0.451</v>
       </c>
       <c r="E24" t="n">
-        <v>0.582</v>
+        <v>0.57</v>
       </c>
       <c r="F24" t="n">
         <v>0.577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.624</v>
+        <v>0.704</v>
       </c>
       <c r="H24" t="n">
         <v>0.361</v>
@@ -1548,7 +1548,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.344</v>
+        <v>0.366</v>
       </c>
       <c r="K24" t="n">
         <v>0.453</v>
@@ -1579,7 +1579,7 @@
         <v>0.478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.62</v>
+        <v>0.578</v>
       </c>
       <c r="F25" t="n">
         <v>0.501</v>
@@ -1588,7 +1588,7 @@
         <v>0.675</v>
       </c>
       <c r="H25" t="n">
-        <v>0.36</v>
+        <v>0.464</v>
       </c>
       <c r="I25" t="n">
         <v>0.532</v>
@@ -1625,7 +1625,7 @@
         <v>0.452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.643</v>
+        <v>0.539</v>
       </c>
       <c r="F26" t="n">
         <v>0.5570000000000001</v>
@@ -1643,7 +1643,7 @@
         <v>0.362</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5</v>
+        <v>0.397</v>
       </c>
       <c r="L26" t="n">
         <v>0.445</v>
@@ -1671,7 +1671,7 @@
         <v>0.466</v>
       </c>
       <c r="E27" t="n">
-        <v>0.639</v>
+        <v>0.578</v>
       </c>
       <c r="F27" t="n">
         <v>0.571</v>
@@ -1686,7 +1686,7 @@
         <v>0.532</v>
       </c>
       <c r="J27" t="n">
-        <v>0.321</v>
+        <v>0.407</v>
       </c>
       <c r="K27" t="n">
         <v>0.439</v>
@@ -1717,7 +1717,7 @@
         <v>0.45</v>
       </c>
       <c r="E28" t="n">
-        <v>0.63</v>
+        <v>0.508</v>
       </c>
       <c r="F28" t="n">
         <v>0.571</v>
@@ -1772,13 +1772,13 @@
         <v>0.655</v>
       </c>
       <c r="H29" t="n">
-        <v>0.356</v>
+        <v>0.464</v>
       </c>
       <c r="I29" t="n">
         <v>0.576</v>
       </c>
       <c r="J29" t="n">
-        <v>0.283</v>
+        <v>0.355</v>
       </c>
       <c r="K29" t="n">
         <v>0.471</v>
@@ -1806,7 +1806,7 @@
         <v>0.671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.397</v>
+        <v>0.52</v>
       </c>
       <c r="E30" t="n">
         <v>0.5590000000000001</v>
@@ -1815,7 +1815,7 @@
         <v>0.535</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.633</v>
       </c>
       <c r="H30" t="n">
         <v>0.391</v>
@@ -1855,13 +1855,13 @@
         <v>0.492</v>
       </c>
       <c r="E31" t="n">
-        <v>0.594</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F31" t="n">
         <v>0.543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.633</v>
+        <v>0.746</v>
       </c>
       <c r="H31" t="n">
         <v>0.376</v>
@@ -1901,16 +1901,16 @@
         <v>0.426</v>
       </c>
       <c r="E32" t="n">
-        <v>0.635</v>
+        <v>0.524</v>
       </c>
       <c r="F32" t="n">
-        <v>0.511</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G32" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="I32" t="n">
         <v>0.574</v>
@@ -1922,7 +1922,7 @@
         <v>0.499</v>
       </c>
       <c r="L32" t="n">
-        <v>0.505</v>
+        <v>0.46</v>
       </c>
       <c r="M32" t="n">
         <v>0.07894736842105263</v>
@@ -1941,10 +1941,10 @@
         <v>0.607</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.606</v>
       </c>
       <c r="D33" t="n">
-        <v>0.496</v>
+        <v>0.491</v>
       </c>
       <c r="E33" t="n">
         <v>0.5590000000000001</v>
@@ -1953,7 +1953,7 @@
         <v>0.517</v>
       </c>
       <c r="G33" t="n">
-        <v>0.634</v>
+        <v>0.719</v>
       </c>
       <c r="H33" t="n">
         <v>0.383</v>
@@ -1993,19 +1993,19 @@
         <v>0.494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.594</v>
+        <v>0.548</v>
       </c>
       <c r="F34" t="n">
         <v>0.542</v>
       </c>
       <c r="G34" t="n">
-        <v>0.599</v>
+        <v>0.725</v>
       </c>
       <c r="H34" t="n">
         <v>0.343</v>
       </c>
       <c r="I34" t="n">
-        <v>0.545</v>
+        <v>0.529</v>
       </c>
       <c r="J34" t="n">
         <v>0.319</v>
@@ -2039,10 +2039,10 @@
         <v>0.478</v>
       </c>
       <c r="E35" t="n">
-        <v>0.643</v>
+        <v>0.577</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="G35" t="n">
         <v>0.6820000000000001</v>
@@ -2054,7 +2054,7 @@
         <v>0.547</v>
       </c>
       <c r="J35" t="n">
-        <v>0.369</v>
+        <v>0.443</v>
       </c>
       <c r="K35" t="n">
         <v>0.479</v>
@@ -2085,16 +2085,16 @@
         <v>0.478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.592</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F36" t="n">
         <v>0.556</v>
       </c>
       <c r="G36" t="n">
-        <v>0.544</v>
+        <v>0.711</v>
       </c>
       <c r="H36" t="n">
-        <v>0.357</v>
+        <v>0.381</v>
       </c>
       <c r="I36" t="n">
         <v>0.552</v>
@@ -2137,10 +2137,10 @@
         <v>0.553</v>
       </c>
       <c r="G37" t="n">
-        <v>0.597</v>
+        <v>0.662</v>
       </c>
       <c r="H37" t="n">
-        <v>0.355</v>
+        <v>0.467</v>
       </c>
       <c r="I37" t="n">
         <v>0.539</v>
@@ -2177,7 +2177,7 @@
         <v>0.48</v>
       </c>
       <c r="E38" t="n">
-        <v>0.623</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F38" t="n">
         <v>0.57</v>
@@ -2186,13 +2186,13 @@
         <v>0.645</v>
       </c>
       <c r="H38" t="n">
-        <v>0.362</v>
+        <v>0.41</v>
       </c>
       <c r="I38" t="n">
-        <v>0.613</v>
+        <v>0.577</v>
       </c>
       <c r="J38" t="n">
-        <v>0.36</v>
+        <v>0.415</v>
       </c>
       <c r="K38" t="n">
         <v>0.479</v>
@@ -2232,13 +2232,13 @@
         <v>0.704</v>
       </c>
       <c r="H39" t="n">
-        <v>0.339</v>
+        <v>0.428</v>
       </c>
       <c r="I39" t="n">
         <v>0.545</v>
       </c>
       <c r="J39" t="n">
-        <v>0.251</v>
+        <v>0.33</v>
       </c>
       <c r="K39" t="n">
         <v>0.475</v>
@@ -2269,7 +2269,7 @@
         <v>0.436</v>
       </c>
       <c r="E40" t="n">
-        <v>0.645</v>
+        <v>0.527</v>
       </c>
       <c r="F40" t="n">
         <v>0.525</v>
@@ -2287,7 +2287,7 @@
         <v>0.349</v>
       </c>
       <c r="K40" t="n">
-        <v>0.438</v>
+        <v>0.375</v>
       </c>
       <c r="L40" t="n">
         <v>0.438</v>
@@ -2309,13 +2309,13 @@
         <v>0.575</v>
       </c>
       <c r="C41" t="n">
-        <v>0.731</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D41" t="n">
         <v>0.483</v>
       </c>
       <c r="E41" t="n">
-        <v>0.642</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F41" t="n">
         <v>0.555</v>
@@ -2324,7 +2324,7 @@
         <v>0.731</v>
       </c>
       <c r="H41" t="n">
-        <v>0.335</v>
+        <v>0.374</v>
       </c>
       <c r="I41" t="n">
         <v>0.519</v>
@@ -2361,13 +2361,13 @@
         <v>0.451</v>
       </c>
       <c r="E42" t="n">
-        <v>0.583</v>
+        <v>0.525</v>
       </c>
       <c r="F42" t="n">
         <v>0.581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.645</v>
+        <v>0.704</v>
       </c>
       <c r="H42" t="n">
         <v>0.337</v>
@@ -2407,13 +2407,13 @@
         <v>0.461</v>
       </c>
       <c r="E43" t="n">
-        <v>0.576</v>
+        <v>0.539</v>
       </c>
       <c r="F43" t="n">
         <v>0.533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.711</v>
       </c>
       <c r="H43" t="n">
         <v>0.373</v>
@@ -2428,7 +2428,7 @@
         <v>0.47</v>
       </c>
       <c r="L43" t="n">
-        <v>0.453</v>
+        <v>0.438</v>
       </c>
       <c r="M43" t="n">
         <v>0.6666666666666666</v>
@@ -2453,7 +2453,7 @@
         <v>0.467</v>
       </c>
       <c r="E44" t="n">
-        <v>0.582</v>
+        <v>0.511</v>
       </c>
       <c r="F44" t="n">
         <v>0.569</v>
@@ -2474,7 +2474,7 @@
         <v>0.481</v>
       </c>
       <c r="L44" t="n">
-        <v>0.464</v>
+        <v>0.432</v>
       </c>
       <c r="M44" t="n">
         <v>1.673913043478261</v>
@@ -2493,13 +2493,13 @@
         <v>0.672</v>
       </c>
       <c r="C45" t="n">
-        <v>0.718</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D45" t="n">
         <v>0.431</v>
       </c>
       <c r="E45" t="n">
-        <v>0.632</v>
+        <v>0.587</v>
       </c>
       <c r="F45" t="n">
         <v>0.634</v>
@@ -2520,7 +2520,7 @@
         <v>0.477</v>
       </c>
       <c r="L45" t="n">
-        <v>0.432</v>
+        <v>0.386</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -2560,7 +2560,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>0.278</v>
+        <v>0.505</v>
       </c>
       <c r="K46" t="n">
         <v>0.44</v>
@@ -2588,10 +2588,10 @@
         <v>0.577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.528</v>
+        <v>0.502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.633</v>
+        <v>0.551</v>
       </c>
       <c r="F47" t="n">
         <v>0.5580000000000001</v>
@@ -2606,7 +2606,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="K47" t="n">
         <v>0.483</v>
@@ -2637,13 +2637,13 @@
         <v>0.466</v>
       </c>
       <c r="E48" t="n">
-        <v>0.589</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F48" t="n">
         <v>0.525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.638</v>
+        <v>0.746</v>
       </c>
       <c r="H48" t="n">
         <v>0.372</v>
@@ -2658,7 +2658,7 @@
         <v>0.483</v>
       </c>
       <c r="L48" t="n">
-        <v>0.465</v>
+        <v>0.439</v>
       </c>
       <c r="M48" t="n">
         <v>1.125</v>
@@ -2683,7 +2683,7 @@
         <v>0.412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.635</v>
+        <v>0.533</v>
       </c>
       <c r="F49" t="n">
         <v>0.535</v>
@@ -2692,7 +2692,7 @@
         <v>0.599</v>
       </c>
       <c r="H49" t="n">
-        <v>0.462</v>
+        <v>0.475</v>
       </c>
       <c r="I49" t="n">
         <v>0.602</v>
@@ -2735,7 +2735,7 @@
         <v>0.569</v>
       </c>
       <c r="G50" t="n">
-        <v>0.575</v>
+        <v>0.698</v>
       </c>
       <c r="H50" t="n">
         <v>0.37</v>
@@ -2744,7 +2744,7 @@
         <v>0.592</v>
       </c>
       <c r="J50" t="n">
-        <v>0.294</v>
+        <v>0.39</v>
       </c>
       <c r="K50" t="n">
         <v>0.492</v>
@@ -2772,16 +2772,16 @@
         <v>0.633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.451</v>
+        <v>0.491</v>
       </c>
       <c r="E51" t="n">
-        <v>0.62</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F51" t="n">
         <v>0.532</v>
       </c>
       <c r="G51" t="n">
-        <v>0.641</v>
+        <v>0.719</v>
       </c>
       <c r="H51" t="n">
         <v>0.37</v>
@@ -2821,7 +2821,7 @@
         <v>0.485</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.523</v>
       </c>
       <c r="F52" t="n">
         <v>0.554</v>
@@ -2830,13 +2830,13 @@
         <v>0.661</v>
       </c>
       <c r="H52" t="n">
-        <v>0.327</v>
+        <v>0.382</v>
       </c>
       <c r="I52" t="n">
-        <v>0.528</v>
+        <v>0.501</v>
       </c>
       <c r="J52" t="n">
-        <v>0.266</v>
+        <v>0.318</v>
       </c>
       <c r="K52" t="n">
         <v>0.38</v>
@@ -2861,13 +2861,13 @@
         <v>0.589</v>
       </c>
       <c r="C53" t="n">
-        <v>0.712</v>
+        <v>0.671</v>
       </c>
       <c r="D53" t="n">
         <v>0.471</v>
       </c>
       <c r="E53" t="n">
-        <v>0.627</v>
+        <v>0.52</v>
       </c>
       <c r="F53" t="n">
         <v>0.549</v>
@@ -2879,7 +2879,7 @@
         <v>0.336</v>
       </c>
       <c r="I53" t="n">
-        <v>0.533</v>
+        <v>0.498</v>
       </c>
       <c r="J53" t="n">
         <v>0.313</v>
@@ -2907,7 +2907,7 @@
         <v>0.556</v>
       </c>
       <c r="C54" t="n">
-        <v>0.704</v>
+        <v>0.673</v>
       </c>
       <c r="D54" t="n">
         <v>0.456</v>
@@ -2928,13 +2928,13 @@
         <v>0.579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.383</v>
+        <v>0.47</v>
       </c>
       <c r="K54" t="n">
         <v>0.453</v>
       </c>
       <c r="L54" t="n">
-        <v>0.495</v>
+        <v>0.444</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -2956,7 +2956,7 @@
         <v>0.657</v>
       </c>
       <c r="D55" t="n">
-        <v>0.453</v>
+        <v>0.479</v>
       </c>
       <c r="E55" t="n">
         <v>0.5659999999999999</v>
@@ -2965,7 +2965,7 @@
         <v>0.492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.573</v>
+        <v>0.698</v>
       </c>
       <c r="H55" t="n">
         <v>0.382</v>
@@ -3005,7 +3005,7 @@
         <v>0.452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.642</v>
+        <v>0.547</v>
       </c>
       <c r="F56" t="n">
         <v>0.524</v>
@@ -3023,7 +3023,7 @@
         <v>0.431</v>
       </c>
       <c r="K56" t="n">
-        <v>0.478</v>
+        <v>0.408</v>
       </c>
       <c r="L56" t="n">
         <v>0.469</v>
@@ -3045,13 +3045,13 @@
         <v>0.58</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.631</v>
       </c>
       <c r="D57" t="n">
         <v>0.43</v>
       </c>
       <c r="E57" t="n">
-        <v>0.577</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F57" t="n">
         <v>0.602</v>
@@ -3066,7 +3066,7 @@
         <v>0.552</v>
       </c>
       <c r="J57" t="n">
-        <v>0.246</v>
+        <v>0.356</v>
       </c>
       <c r="K57" t="n">
         <v>0.451</v>
@@ -3103,7 +3103,7 @@
         <v>0.594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.645</v>
+        <v>0.735</v>
       </c>
       <c r="H58" t="n">
         <v>0.37</v>
@@ -3115,10 +3115,10 @@
         <v>0.361</v>
       </c>
       <c r="K58" t="n">
-        <v>0.456</v>
+        <v>0.471</v>
       </c>
       <c r="L58" t="n">
-        <v>0.431</v>
+        <v>0.393</v>
       </c>
       <c r="M58" t="n">
         <v>1.818181818181818</v>
@@ -3140,16 +3140,16 @@
         <v>0.648</v>
       </c>
       <c r="D59" t="n">
-        <v>0.412</v>
+        <v>0.456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.575</v>
+        <v>0.538</v>
       </c>
       <c r="F59" t="n">
         <v>0.621</v>
       </c>
       <c r="G59" t="n">
-        <v>0.589</v>
+        <v>0.676</v>
       </c>
       <c r="H59" t="n">
         <v>0.361</v>
@@ -3204,13 +3204,13 @@
         <v>0.496</v>
       </c>
       <c r="J60" t="n">
-        <v>0.264</v>
+        <v>0.398</v>
       </c>
       <c r="K60" t="n">
         <v>0.375</v>
       </c>
       <c r="L60" t="n">
-        <v>0.436</v>
+        <v>0.397</v>
       </c>
       <c r="M60" t="n">
         <v>2.542857142857143</v>
@@ -3241,7 +3241,7 @@
         <v>0.612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.578</v>
+        <v>0.675</v>
       </c>
       <c r="H61" t="n">
         <v>0.338</v>
@@ -3250,10 +3250,10 @@
         <v>0.577</v>
       </c>
       <c r="J61" t="n">
-        <v>0.341</v>
+        <v>0.38</v>
       </c>
       <c r="K61" t="n">
-        <v>0.395</v>
+        <v>0.398</v>
       </c>
       <c r="L61" t="n">
         <v>0.433</v>
@@ -3278,7 +3278,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.419</v>
+        <v>0.479</v>
       </c>
       <c r="E62" t="n">
         <v>0.509</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.698</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3327,7 +3327,7 @@
         <v>0.465</v>
       </c>
       <c r="E63" t="n">
-        <v>0.619</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F63" t="n">
         <v>0.555</v>
@@ -3342,7 +3342,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>0.375</v>
+        <v>0.525</v>
       </c>
       <c r="K63" t="n">
         <v>0.477</v>
@@ -3379,7 +3379,7 @@
         <v>0.585</v>
       </c>
       <c r="G64" t="n">
-        <v>0.719</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0.35</v>
@@ -3394,7 +3394,7 @@
         <v>0.39</v>
       </c>
       <c r="L64" t="n">
-        <v>0.496</v>
+        <v>0.406</v>
       </c>
       <c r="M64" t="n">
         <v>4.8</v>
@@ -3425,7 +3425,7 @@
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
         <v>0.39</v>
@@ -3480,7 +3480,7 @@
         <v>0.546</v>
       </c>
       <c r="J66" t="n">
-        <v>0.243</v>
+        <v>0.422</v>
       </c>
       <c r="K66" t="n">
         <v>0.432</v>
@@ -3505,7 +3505,7 @@
         <v>0.725</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.613</v>
       </c>
       <c r="D67" t="n">
         <v>0.442</v>
@@ -3520,7 +3520,7 @@
         <v>0.668</v>
       </c>
       <c r="H67" t="n">
-        <v>0.378</v>
+        <v>0.475</v>
       </c>
       <c r="I67" t="n">
         <v>0.547</v>
@@ -3563,10 +3563,10 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.697</v>
       </c>
       <c r="H68" t="n">
-        <v>0.362</v>
+        <v>0.412</v>
       </c>
       <c r="I68" t="n">
         <v>0.518</v>
@@ -3603,7 +3603,7 @@
         <v>0.463</v>
       </c>
       <c r="E69" t="n">
-        <v>0.579</v>
+        <v>0.553</v>
       </c>
       <c r="F69" t="n">
         <v>0.518</v>
@@ -3612,13 +3612,13 @@
         <v>0.616</v>
       </c>
       <c r="H69" t="n">
-        <v>0.371</v>
+        <v>0.43</v>
       </c>
       <c r="I69" t="n">
         <v>0.529</v>
       </c>
       <c r="J69" t="n">
-        <v>0.343</v>
+        <v>0.451</v>
       </c>
       <c r="K69" t="n">
         <v>0.485</v>
@@ -3655,10 +3655,10 @@
         <v>0.507</v>
       </c>
       <c r="G70" t="n">
-        <v>0.639</v>
+        <v>0.756</v>
       </c>
       <c r="H70" t="n">
-        <v>0.32</v>
+        <v>0.369</v>
       </c>
       <c r="I70" t="n">
         <v>0.5570000000000001</v>
@@ -3701,10 +3701,10 @@
         <v>0.601</v>
       </c>
       <c r="G71" t="n">
-        <v>0.615</v>
+        <v>0.702</v>
       </c>
       <c r="H71" t="n">
-        <v>0.331</v>
+        <v>0.453</v>
       </c>
       <c r="I71" t="n">
         <v>0.534</v>
@@ -3741,16 +3741,16 @@
         <v>0.42</v>
       </c>
       <c r="E72" t="n">
-        <v>0.596</v>
+        <v>0.548</v>
       </c>
       <c r="F72" t="n">
         <v>0.576</v>
       </c>
       <c r="G72" t="n">
-        <v>0.621</v>
+        <v>0.697</v>
       </c>
       <c r="H72" t="n">
-        <v>0.388</v>
+        <v>0.412</v>
       </c>
       <c r="I72" t="n">
         <v>0.553</v>
@@ -3790,13 +3790,13 @@
         <v>0.552</v>
       </c>
       <c r="F73" t="n">
-        <v>0.546</v>
+        <v>0.622</v>
       </c>
       <c r="G73" t="n">
-        <v>0.593</v>
+        <v>0.764</v>
       </c>
       <c r="H73" t="n">
-        <v>0.353</v>
+        <v>0.369</v>
       </c>
       <c r="I73" t="n">
         <v>0.556</v>
@@ -3827,7 +3827,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.651</v>
+        <v>0.584</v>
       </c>
       <c r="D74" t="n">
         <v>0.398</v>
@@ -3839,10 +3839,10 @@
         <v>0.488</v>
       </c>
       <c r="G74" t="n">
-        <v>0.552</v>
+        <v>0.627</v>
       </c>
       <c r="H74" t="n">
-        <v>0.394</v>
+        <v>0.408</v>
       </c>
       <c r="I74" t="n">
         <v>0.583</v>
@@ -3851,7 +3851,7 @@
         <v>0.448</v>
       </c>
       <c r="K74" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="L74" t="n">
         <v>0.472</v>
@@ -3873,13 +3873,13 @@
         <v>0.635</v>
       </c>
       <c r="C75" t="n">
-        <v>0.694</v>
+        <v>0.571</v>
       </c>
       <c r="D75" t="n">
         <v>0.468</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.515</v>
       </c>
       <c r="F75" t="n">
         <v>0.521</v>
@@ -3931,10 +3931,10 @@
         <v>0.576</v>
       </c>
       <c r="G76" t="n">
-        <v>0.627</v>
+        <v>0.712</v>
       </c>
       <c r="H76" t="n">
-        <v>0.328</v>
+        <v>0.375</v>
       </c>
       <c r="I76" t="n">
         <v>0.548</v>
@@ -3965,13 +3965,13 @@
         <v>0.648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.646</v>
+        <v>0.571</v>
       </c>
       <c r="D77" t="n">
         <v>0.46</v>
       </c>
       <c r="E77" t="n">
-        <v>0.581</v>
+        <v>0.515</v>
       </c>
       <c r="F77" t="n">
         <v>0.533</v>
@@ -4017,13 +4017,13 @@
         <v>0.47</v>
       </c>
       <c r="E78" t="n">
-        <v>0.573</v>
+        <v>0.518</v>
       </c>
       <c r="F78" t="n">
         <v>0.554</v>
       </c>
       <c r="G78" t="n">
-        <v>0.592</v>
+        <v>0.675</v>
       </c>
       <c r="H78" t="n">
         <v>0.38</v>
@@ -4035,7 +4035,7 @@
         <v>0.343</v>
       </c>
       <c r="K78" t="n">
-        <v>0.407</v>
+        <v>0.439</v>
       </c>
       <c r="L78" t="n">
         <v>0.436</v>
@@ -4069,16 +4069,16 @@
         <v>0.522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.594</v>
+        <v>0.604</v>
       </c>
       <c r="H79" t="n">
         <v>0.37</v>
       </c>
       <c r="I79" t="n">
-        <v>0.526</v>
+        <v>0.625</v>
       </c>
       <c r="J79" t="n">
-        <v>0.377</v>
+        <v>0.505</v>
       </c>
       <c r="K79" t="n">
         <v>0.448</v>
@@ -4103,19 +4103,19 @@
         <v>0.591</v>
       </c>
       <c r="C80" t="n">
-        <v>0.629</v>
+        <v>0.729</v>
       </c>
       <c r="D80" t="n">
-        <v>0.528</v>
+        <v>0.463</v>
       </c>
       <c r="E80" t="n">
-        <v>0.633</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F80" t="n">
         <v>0.5</v>
       </c>
       <c r="G80" t="n">
-        <v>0.658</v>
+        <v>0.794</v>
       </c>
       <c r="H80" t="n">
         <v>0.343</v>
@@ -4161,10 +4161,10 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.697</v>
       </c>
       <c r="H81" t="n">
-        <v>0.361</v>
+        <v>0.412</v>
       </c>
       <c r="I81" t="n">
         <v>0.503</v>
@@ -4207,13 +4207,13 @@
         <v>0.62</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H82" t="n">
-        <v>0.34</v>
+        <v>0.376</v>
       </c>
       <c r="I82" t="n">
-        <v>0.528</v>
+        <v>0.547</v>
       </c>
       <c r="J82" t="n">
         <v>0.285</v>
@@ -4222,7 +4222,7 @@
         <v>0.392</v>
       </c>
       <c r="L82" t="n">
-        <v>0.464</v>
+        <v>0.41</v>
       </c>
       <c r="M82" t="n">
         <v>4.733333333333333</v>
@@ -4247,7 +4247,7 @@
         <v>0.456</v>
       </c>
       <c r="E83" t="n">
-        <v>0.632</v>
+        <v>0.518</v>
       </c>
       <c r="F83" t="n">
         <v>0.483</v>
@@ -4259,7 +4259,7 @@
         <v>0.372</v>
       </c>
       <c r="I83" t="n">
-        <v>0.523</v>
+        <v>0.495</v>
       </c>
       <c r="J83" t="n">
         <v>0.319</v>
@@ -4299,7 +4299,7 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.793</v>
       </c>
       <c r="H84" t="n">
         <v>0.307</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.649</v>
+        <v>0.57</v>
       </c>
       <c r="C85" t="n">
         <v>0.601</v>
@@ -4339,13 +4339,13 @@
         <v>0.441</v>
       </c>
       <c r="E85" t="n">
-        <v>0.584</v>
+        <v>0.533</v>
       </c>
       <c r="F85" t="n">
         <v>0.523</v>
       </c>
       <c r="G85" t="n">
-        <v>0.571</v>
+        <v>0.681</v>
       </c>
       <c r="H85" t="n">
         <v>0.405</v>
@@ -4379,13 +4379,13 @@
         <v>0.537</v>
       </c>
       <c r="C86" t="n">
-        <v>0.699</v>
+        <v>0.597</v>
       </c>
       <c r="D86" t="n">
         <v>0.431</v>
       </c>
       <c r="E86" t="n">
-        <v>0.575</v>
+        <v>0.536</v>
       </c>
       <c r="F86" t="n">
         <v>0.5580000000000001</v>
@@ -4406,7 +4406,7 @@
         <v>0.411</v>
       </c>
       <c r="L86" t="n">
-        <v>0.467</v>
+        <v>0.387</v>
       </c>
       <c r="M86" t="n">
         <v>7.911764705882353</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.753</v>
+        <v>0.725</v>
       </c>
       <c r="C87" t="n">
         <v>0.615</v>
@@ -4437,13 +4437,13 @@
         <v>0.609</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.772</v>
       </c>
       <c r="H87" t="n">
         <v>0.354</v>
       </c>
       <c r="I87" t="n">
-        <v>0.569</v>
+        <v>0.538</v>
       </c>
       <c r="J87" t="n">
         <v>0.323</v>
@@ -4452,7 +4452,7 @@
         <v>0.459</v>
       </c>
       <c r="L87" t="n">
-        <v>0.46</v>
+        <v>0.422</v>
       </c>
       <c r="M87" t="n">
         <v>0.5600000000000001</v>
@@ -4483,13 +4483,13 @@
         <v>0.573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.632</v>
+        <v>0.734</v>
       </c>
       <c r="H88" t="n">
         <v>0.341</v>
       </c>
       <c r="I88" t="n">
-        <v>0.502</v>
+        <v>0.6</v>
       </c>
       <c r="J88" t="n">
         <v>0.279</v>
@@ -4529,7 +4529,7 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.634</v>
+        <v>0.785</v>
       </c>
       <c r="H89" t="n">
         <v>0.373</v>
@@ -4566,7 +4566,7 @@
         <v>0.611</v>
       </c>
       <c r="D90" t="n">
-        <v>0.385</v>
+        <v>0.422</v>
       </c>
       <c r="E90" t="n">
         <v>0.541</v>
@@ -4575,7 +4575,7 @@
         <v>0.476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.599</v>
+        <v>0.71</v>
       </c>
       <c r="H90" t="n">
         <v>0.382</v>
@@ -4621,7 +4621,7 @@
         <v>0.54</v>
       </c>
       <c r="G91" t="n">
-        <v>0.626</v>
+        <v>0.756</v>
       </c>
       <c r="H91" t="n">
         <v>0.342</v>
@@ -4636,7 +4636,7 @@
         <v>0.493</v>
       </c>
       <c r="L91" t="n">
-        <v>0.453</v>
+        <v>0.431</v>
       </c>
       <c r="M91" t="n">
         <v>2.297297297297297</v>
@@ -4661,7 +4661,7 @@
         <v>0.498</v>
       </c>
       <c r="E92" t="n">
-        <v>0.639</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F92" t="n">
         <v>0.518</v>
@@ -4682,7 +4682,7 @@
         <v>0.449</v>
       </c>
       <c r="L92" t="n">
-        <v>0.513</v>
+        <v>0.385</v>
       </c>
       <c r="M92" t="n">
         <v>6.5</v>
@@ -4719,10 +4719,10 @@
         <v>0.392</v>
       </c>
       <c r="I93" t="n">
-        <v>0.524</v>
+        <v>0.625</v>
       </c>
       <c r="J93" t="n">
-        <v>0.363</v>
+        <v>0.505</v>
       </c>
       <c r="K93" t="n">
         <v>0.5</v>
@@ -4759,7 +4759,7 @@
         <v>0.533</v>
       </c>
       <c r="G94" t="n">
-        <v>0.657</v>
+        <v>0.736</v>
       </c>
       <c r="H94" t="n">
         <v>0.357</v>
@@ -4774,7 +4774,7 @@
         <v>0.483</v>
       </c>
       <c r="L94" t="n">
-        <v>0.501</v>
+        <v>0.442</v>
       </c>
       <c r="M94" t="n">
         <v>2.074074074074074</v>
@@ -4805,7 +4805,7 @@
         <v>0.535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.587</v>
+        <v>0.712</v>
       </c>
       <c r="H95" t="n">
         <v>0.342</v>
@@ -4839,13 +4839,13 @@
         <v>0.653</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.631</v>
       </c>
       <c r="D96" t="n">
         <v>0.477</v>
       </c>
       <c r="E96" t="n">
-        <v>0.577</v>
+        <v>0.528</v>
       </c>
       <c r="F96" t="n">
         <v>0.594</v>
@@ -4863,7 +4863,7 @@
         <v>0.301</v>
       </c>
       <c r="K96" t="n">
-        <v>0.46</v>
+        <v>0.375</v>
       </c>
       <c r="L96" t="n">
         <v>0.413</v>
@@ -4897,13 +4897,13 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.734</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="J97" t="n">
         <v>0.333</v>
@@ -4943,7 +4943,7 @@
         <v>0.516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.571</v>
+        <v>0.709</v>
       </c>
       <c r="H98" t="n">
         <v>0.362</v>
@@ -4989,7 +4989,7 @@
         <v>0.528</v>
       </c>
       <c r="G99" t="n">
-        <v>0.632</v>
+        <v>0.746</v>
       </c>
       <c r="H99" t="n">
         <v>0.343</v>
@@ -5035,7 +5035,7 @@
         <v>0.438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.61</v>
+        <v>0.763</v>
       </c>
       <c r="H100" t="n">
         <v>0.359</v>
@@ -5072,16 +5072,16 @@
         <v>0.737</v>
       </c>
       <c r="D101" t="n">
-        <v>0.456</v>
+        <v>0.438</v>
       </c>
       <c r="E101" t="n">
-        <v>0.617</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F101" t="n">
         <v>0.583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.712</v>
+        <v>0.773</v>
       </c>
       <c r="H101" t="n">
         <v>0.314</v>
